--- a/data/baseMAT.xlsx
+++ b/data/baseMAT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-22.04\home\gfmco\Projects\TrabalhoExperimental\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD9605F-14D4-4DBA-B696-5EAD56ADE4C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76C7708-BE4E-4FE5-8330-318B3883FEA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -113,9 +113,6 @@
     <t>a) Lado Ângulo Lado (L.A.L.)</t>
   </si>
   <si>
-    <t>Remota</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -294,6 +291,9 @@
   </si>
   <si>
     <t>01:10:24</t>
+  </si>
+  <si>
+    <t>Remoto</t>
   </si>
 </sst>
 </file>
@@ -565,7 +565,7 @@
   <dimension ref="A1:AC13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="D2" sqref="D2:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -599,91 +599,91 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.2">
@@ -697,7 +697,7 @@
         <v>2021</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>19</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>10</v>
@@ -777,7 +777,7 @@
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1">
         <v>21</v>
@@ -786,7 +786,7 @@
         <v>2018</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>1</v>
@@ -795,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>2</v>
@@ -807,7 +807,7 @@
         <v>4</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>6</v>
@@ -831,7 +831,7 @@
         <v>7</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>7</v>
@@ -875,7 +875,7 @@
         <v>2019</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>1</v>
@@ -884,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>2</v>
@@ -899,7 +899,7 @@
         <v>5</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>10</v>
@@ -911,7 +911,7 @@
         <v>7</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>2</v>
@@ -920,7 +920,7 @@
         <v>7</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>7</v>
@@ -932,7 +932,7 @@
         <v>13</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X4" s="1" t="s">
         <v>15</v>
@@ -955,7 +955,7 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1">
         <v>22</v>
@@ -964,7 +964,7 @@
         <v>2019</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>1</v>
@@ -973,16 +973,16 @@
         <v>0</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>22</v>
@@ -1000,7 +1000,7 @@
         <v>2</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>8</v>
@@ -1009,7 +1009,7 @@
         <v>2</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>7</v>
@@ -1021,7 +1021,7 @@
         <v>13</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X5" s="1" t="s">
         <v>25</v>
@@ -1033,7 +1033,7 @@
         <v>17</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AB5" s="3">
         <v>0.55138888888905058</v>
@@ -1044,7 +1044,7 @@
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="1">
         <v>22</v>
@@ -1053,7 +1053,7 @@
         <v>2021</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>19</v>
@@ -1062,19 +1062,19 @@
         <v>0</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>6</v>
@@ -1089,7 +1089,7 @@
         <v>8</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>10</v>
@@ -1122,7 +1122,7 @@
         <v>17</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AB6" s="3">
         <v>0.55555555555474712</v>
@@ -1142,7 +1142,7 @@
         <v>2019</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>19</v>
@@ -1151,13 +1151,13 @@
         <v>0</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>21</v>
@@ -1169,7 +1169,7 @@
         <v>6</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>7</v>
@@ -1190,7 +1190,7 @@
         <v>11</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>12</v>
@@ -1199,7 +1199,7 @@
         <v>13</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X7" s="1" t="s">
         <v>15</v>
@@ -1211,7 +1211,7 @@
         <v>17</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AB7" s="3">
         <v>0.55347222222189885</v>
@@ -1222,7 +1222,7 @@
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1">
         <v>19</v>
@@ -1231,7 +1231,7 @@
         <v>2021</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>19</v>
@@ -1240,16 +1240,16 @@
         <v>0</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>5</v>
@@ -1311,7 +1311,7 @@
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1">
         <v>21</v>
@@ -1320,7 +1320,7 @@
         <v>2019</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>19</v>
@@ -1329,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>2</v>
@@ -1400,7 +1400,7 @@
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="1">
         <v>22</v>
@@ -1409,7 +1409,7 @@
         <v>2019</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>19</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>6</v>
@@ -1454,7 +1454,7 @@
         <v>2</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T10" s="1" t="s">
         <v>7</v>
@@ -1498,7 +1498,7 @@
         <v>2021</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>1</v>
@@ -1507,25 +1507,25 @@
         <v>0</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>7</v>
@@ -1534,7 +1534,7 @@
         <v>8</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>2</v>
@@ -1555,10 +1555,10 @@
         <v>16</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y11" s="1" t="s">
         <v>13</v>
@@ -1587,7 +1587,7 @@
         <v>2021</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>1</v>
@@ -1596,10 +1596,10 @@
         <v>0</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>20</v>
@@ -1608,7 +1608,7 @@
         <v>4</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>6</v>
@@ -1623,7 +1623,7 @@
         <v>8</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>8</v>
@@ -1676,7 +1676,7 @@
         <v>2021</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>1</v>
@@ -1685,22 +1685,22 @@
         <v>0</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>2</v>
